--- a/对应表.xlsx
+++ b/对应表.xlsx
@@ -22,7 +22,7 @@
     <t>名称</t>
   </si>
   <si>
-    <t>清晰度</t>
+    <t>分辨率</t>
   </si>
   <si>
     <t>0001</t>
@@ -31,7 +31,7 @@
     <t>CCTV1</t>
   </si>
   <si>
-    <t>http://150.138.8.143/00/SNM/CHANNEL00000002/index.m3u8</t>
+    <t>http://150.138.8.143/00/SNM/CHANNEL00000001/index.m3u8</t>
   </si>
   <si>
     <t>0002</t>
@@ -7898,14 +7898,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8389,16 +8389,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2158"/>
+  <dimension ref="A1:E2160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A1090" workbookViewId="0">
-      <selection activeCell="B2159" sqref="B2159"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="56.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="21.3909090909091" customWidth="1"/>
+    <col min="5" max="5" width="65.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -20809,25 +20809,25 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="2158" spans="1:2">
-      <c r="A2158" t="s">
+    <row r="2160" spans="1:2">
+      <c r="A2160" t="s">
         <v>2399</v>
       </c>
-      <c r="B2158" t="s">
+      <c r="B2160" t="s">
         <v>2400</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>576</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1080</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>576</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://150.138.8.143/00/SNM/CHANNEL00000002/index.m3u8" tooltip="http://150.138.8.143/00/SNM/CHANNEL00000002/index.m3u8"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://150.138.8.143/00/SNM/CHANNEL00000001/index.m3u8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
